--- a/远洋装修预算方案.xlsx
+++ b/远洋装修预算方案.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9840"/>
+    <workbookView windowWidth="24000" windowHeight="9840"/>
   </bookViews>
   <sheets>
     <sheet name="预算" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="114210"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="65">
   <si>
     <t>序号</t>
   </si>
@@ -43,12 +43,24 @@
     <t>全屋</t>
   </si>
   <si>
+    <t>面积8.9平 4个开窗 4个金刚网</t>
+  </si>
+  <si>
+    <t>厨房墙砖</t>
+  </si>
+  <si>
+    <t>厨房</t>
+  </si>
+  <si>
     <t>地砖</t>
   </si>
   <si>
     <t>主卧、次卧、过道、厨房</t>
   </si>
   <si>
+    <t>（0.6*0.6）</t>
+  </si>
+  <si>
     <t>卫生间地砖</t>
   </si>
   <si>
@@ -88,9 +100,6 @@
     <t>台下洗菜盆+水龙头</t>
   </si>
   <si>
-    <t>厨房</t>
-  </si>
-  <si>
     <t>热水器</t>
   </si>
   <si>
@@ -200,21 +209,19 @@
   </si>
   <si>
     <t>装修人工费</t>
-  </si>
-  <si>
-    <t>厨房墙砖</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>（0.6*0.6）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,12 +236,151 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -247,8 +393,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -256,9 +588,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -276,11 +850,63 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -536,27 +1162,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="3" width="25.5" customWidth="1"/>
     <col min="4" max="4" width="39.75" customWidth="1"/>
     <col min="5" max="5" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1">
+    <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -596,18 +1223,22 @@
       <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="3">
+        <v>8000</v>
+      </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -617,13 +1248,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="E5" s="3"/>
     </row>
@@ -632,10 +1263,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -645,10 +1276,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -658,7 +1289,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>8</v>
@@ -671,10 +1302,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -684,10 +1315,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -697,7 +1328,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>8</v>
@@ -710,7 +1341,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>8</v>
@@ -723,7 +1354,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>8</v>
@@ -736,10 +1367,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -749,10 +1380,10 @@
         <v>2</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -762,10 +1393,10 @@
         <v>2</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -775,7 +1406,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -786,10 +1417,10 @@
         <v>2</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -799,10 +1430,10 @@
         <v>2</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -812,10 +1443,10 @@
         <v>2</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -825,10 +1456,10 @@
         <v>2</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -838,13 +1469,13 @@
         <v>2</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E22" s="3">
         <v>2000</v>
@@ -855,13 +1486,13 @@
         <v>2</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E23" s="3"/>
     </row>
@@ -870,13 +1501,13 @@
         <v>2</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E24" s="3">
         <v>5000</v>
@@ -887,10 +1518,10 @@
         <v>2</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -900,10 +1531,10 @@
         <v>2</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
@@ -913,10 +1544,10 @@
         <v>2</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -926,10 +1557,10 @@
         <v>2</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -939,10 +1570,10 @@
         <v>2</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -952,13 +1583,13 @@
         <v>2</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E30" s="3"/>
     </row>
@@ -967,10 +1598,10 @@
         <v>2</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -980,49 +1611,49 @@
         <v>2</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:5">
       <c r="A33" s="3">
         <v>2</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:5">
       <c r="A34" s="3">
         <v>2</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:5">
       <c r="A35" s="3">
         <v>2</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -1032,7 +1663,7 @@
         <v>2</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -1044,10 +1675,10 @@
         <v>2</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
@@ -1058,80 +1689,80 @@
         <v>2</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:5">
       <c r="A39" s="3">
         <v>2</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:5">
       <c r="A40" s="3">
         <v>2</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:5">
       <c r="A41" s="3">
         <v>2</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:5">
       <c r="A42" s="3">
         <v>2</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E42" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:2">
       <c r="A43" s="3">
         <v>2</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" s="3">
         <v>2</v>
       </c>
@@ -1140,7 +1771,7 @@
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:5">
       <c r="A45" s="3">
         <v>2</v>
       </c>
@@ -1150,7 +1781,7 @@
       <c r="E45" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/远洋装修预算方案.xlsx
+++ b/远洋装修预算方案.xlsx
@@ -1237,7 +1237,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>

--- a/远洋装修预算方案.xlsx
+++ b/远洋装修预算方案.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24000" windowHeight="9840"/>
+    <workbookView windowWidth="24000" windowHeight="9840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="预算" sheetId="1" r:id="rId1"/>
+    <sheet name="辅料" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="150">
   <si>
     <t>序号</t>
   </si>
@@ -55,7 +56,7 @@
     <t>厨房</t>
   </si>
   <si>
-    <t>153（多加了6片损耗）*</t>
+    <t>153（多加了6片损耗）*20</t>
   </si>
   <si>
     <t>墙29.2平 - 门1.4平 - 窗户1.4平 = 26.4平/(0.3*0.6) = 147片</t>
@@ -67,7 +68,7 @@
     <t>主卧、次卧、过道、厨房</t>
   </si>
   <si>
-    <t>121片(多加了5片耗损)*</t>
+    <t>121片(多加了5片耗损)*40</t>
   </si>
   <si>
     <t>主卧：15平/(0.6*0.6)=42片  次卧12平/(0.6*0.6)=34片  过道7平/(0.6*0.6)=20片  厨房7平/(0.6*0.6)=20片</t>
@@ -88,7 +89,7 @@
     <t>卫生间墙砖</t>
   </si>
   <si>
-    <t>92（多加4片耗损）*</t>
+    <t>92（多加4片耗损）*20</t>
   </si>
   <si>
     <t>墙17.2平 - 门1.4平 = 15.8平/(0.3*0.6) = 88片</t>
@@ -217,6 +218,47 @@
     <t>开关面板</t>
   </si>
   <si>
+    <r>
+      <t>施耐德、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF121212"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ABB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF121212"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、西门子、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF121212"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>TCL-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF121212"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>罗格朗、公牛、德力西、正泰等品牌都可以</t>
+    </r>
+  </si>
+  <si>
     <t>插座</t>
   </si>
   <si>
@@ -253,13 +295,214 @@
     <t>儿童学习桌</t>
   </si>
   <si>
-    <t>空调+打孔+安装</t>
+    <t>空调+安装</t>
   </si>
   <si>
     <t>2台海尔空调</t>
   </si>
   <si>
     <t>装修人工费</t>
+  </si>
+  <si>
+    <t>装修的材料上楼费用</t>
+  </si>
+  <si>
+    <t>300-800</t>
+  </si>
+  <si>
+    <t>垃圾清运费用</t>
+  </si>
+  <si>
+    <t>2车</t>
+  </si>
+  <si>
+    <t>垃圾清运下楼费用</t>
+  </si>
+  <si>
+    <t>潜水艇地漏</t>
+  </si>
+  <si>
+    <t>品牌型号</t>
+  </si>
+  <si>
+    <t>价格</t>
+  </si>
+  <si>
+    <t>水泥砂浆</t>
+  </si>
+  <si>
+    <t>主卧、次卧、过道、卫生间、厨房</t>
+  </si>
+  <si>
+    <t>界面剂（胶水）</t>
+  </si>
+  <si>
+    <t>界面剂是胶水，增强附着力，一般不用于厨房，只有厨房贴大砖上墙时才用</t>
+  </si>
+  <si>
+    <t>石膏</t>
+  </si>
+  <si>
+    <t>腻子（3次）</t>
+  </si>
+  <si>
+    <t>要耐水腻子</t>
+  </si>
+  <si>
+    <t>防水剂</t>
+  </si>
+  <si>
+    <t>卫生间、厨房</t>
+  </si>
+  <si>
+    <t>回填材料</t>
+  </si>
+  <si>
+    <t>低于10公分以上，才用煤渣回填，建渣回填是不合格的</t>
+  </si>
+  <si>
+    <t>龙骨木方</t>
+  </si>
+  <si>
+    <t>卫生间吊顶、次卧隔墙</t>
+  </si>
+  <si>
+    <t>五金小件</t>
+  </si>
+  <si>
+    <t>暗盒接头锁扣</t>
+  </si>
+  <si>
+    <t>电路材料及配件</t>
+  </si>
+  <si>
+    <t>PVC线管</t>
+  </si>
+  <si>
+    <t>铜芯线管</t>
+  </si>
+  <si>
+    <t>远东电缆、熊猫电线、民兴电缆、特变电工、宝胜、正泰、德力西电气、飞雕、金龙羽、金杯电工</t>
+  </si>
+  <si>
+    <t>电路材料及配件（电线的材质首选紫铜，其次黄铜）</t>
+  </si>
+  <si>
+    <t>黄腊管</t>
+  </si>
+  <si>
+    <t>开关</t>
+  </si>
+  <si>
+    <t>管卡</t>
+  </si>
+  <si>
+    <t>绝缘胶带</t>
+  </si>
+  <si>
+    <t>等径弯头</t>
+  </si>
+  <si>
+    <t>水路材料及配件</t>
+  </si>
+  <si>
+    <t>临时水龙头</t>
+  </si>
+  <si>
+    <t>三通内丝</t>
+  </si>
+  <si>
+    <t>公元、皮尔萨、美尔固、索邦管、世丰、龙胜管业、联塑、伟星新材、宝士特、中财管道</t>
+  </si>
+  <si>
+    <t>生料带</t>
+  </si>
+  <si>
+    <t>内丝弯头</t>
+  </si>
+  <si>
+    <t>堵头</t>
+  </si>
+  <si>
+    <t>等径三通</t>
+  </si>
+  <si>
+    <t>玻璃纤维</t>
+  </si>
+  <si>
+    <t>吊顶所需配件</t>
+  </si>
+  <si>
+    <t>钉子</t>
+  </si>
+  <si>
+    <t>龙骨</t>
+  </si>
+  <si>
+    <t>密封胶</t>
+  </si>
+  <si>
+    <t>牛皮纸</t>
+  </si>
+  <si>
+    <t>吊杆</t>
+  </si>
+  <si>
+    <t>扣条</t>
+  </si>
+  <si>
+    <t>玻璃胶</t>
+  </si>
+  <si>
+    <t>腻子粉</t>
+  </si>
+  <si>
+    <t>美巢YJP-800JJ/GQ、山鹅、莱恩斯、智恒</t>
+  </si>
+  <si>
+    <t>墙地面辅材（要耐水腻子），要第一遍干了再刷第二遍</t>
+  </si>
+  <si>
+    <t>水泥河沙</t>
+  </si>
+  <si>
+    <t>墙地面辅材</t>
+  </si>
+  <si>
+    <t>砖头</t>
+  </si>
+  <si>
+    <t>汉高百得、摩利美涂、美蛙、美巢的墙固</t>
+  </si>
+  <si>
+    <t>墙地面辅材（要选用墙面固化胶和地面固化胶），不要用107、108胶，甲醛含量高，墙地固涂刷应在找平后进行</t>
+  </si>
+  <si>
+    <t>美缝剂</t>
+  </si>
+  <si>
+    <t>皇氏工匠</t>
+  </si>
+  <si>
+    <t>墙地面辅材（采用水性美缝剂）</t>
+  </si>
+  <si>
+    <t>防水卷材</t>
+  </si>
+  <si>
+    <t>防水所需辅材</t>
+  </si>
+  <si>
+    <t>防水涂料</t>
+  </si>
+  <si>
+    <t>滚筒</t>
+  </si>
+  <si>
+    <t>刷子</t>
+  </si>
+  <si>
+    <t>回填陶粒</t>
   </si>
 </sst>
 </file>
@@ -272,7 +515,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -282,16 +525,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.25"/>
+      <color rgb="FF121212"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="11.5"/>
+      <color rgb="FF121212"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -437,8 +692,14 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11.5"/>
+      <color rgb="FF121212"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -447,6 +708,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="57"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -526,12 +835,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -752,10 +1055,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -764,153 +1067,204 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1232,12 +1586,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
+      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1248,626 +1602,1377 @@
     <col min="6" max="6" width="107" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:6">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="18" customFormat="1" spans="1:6">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="20" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="4">
+      <c r="A2" s="21">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D2"/>
-      <c r="E2" s="4">
+      <c r="E2" s="21">
         <v>3000</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="4">
+      <c r="A3" s="21">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="21">
         <v>8000</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="21" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="4">
+      <c r="A4" s="21">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4" t="s">
+      <c r="E4" s="21">
+        <v>3060</v>
+      </c>
+      <c r="F4" s="21" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="4">
+      <c r="A5" s="21">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4" t="s">
+      <c r="E5" s="21">
+        <v>4840</v>
+      </c>
+      <c r="F5" s="21" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="4">
+      <c r="A6" s="21">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4" t="s">
+      <c r="E6" s="21"/>
+      <c r="F6" s="21" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="4">
+      <c r="A7" s="21">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4" t="s">
+      <c r="E7" s="21">
+        <v>1840</v>
+      </c>
+      <c r="F7" s="21" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="4">
+      <c r="A8" s="21">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4" t="s">
+      <c r="E8" s="21"/>
+      <c r="F8" s="21" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="4">
+      <c r="A9" s="21">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="4">
+      <c r="A10" s="21">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="4">
+      <c r="A11" s="21">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="4">
+      <c r="A12" s="21">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="21">
         <v>1600</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="21" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="4">
+      <c r="A13" s="21">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="4">
+      <c r="A14" s="21">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="21">
         <v>2500</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="21" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="4">
+      <c r="A15" s="21">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="21">
         <v>1200</v>
       </c>
-      <c r="F15" s="4"/>
+      <c r="F15" s="21"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="4">
+      <c r="A16" s="21">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="E16" s="4">
+      <c r="C16" s="21"/>
+      <c r="E16" s="21">
         <v>5000</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="21" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="4">
+      <c r="A17" s="21">
         <v>16</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="4">
+      <c r="A18" s="21">
         <v>17</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="4">
+      <c r="A19" s="21">
         <v>18</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="4">
+      <c r="A20" s="21">
         <v>19</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="4">
+      <c r="A21" s="21">
         <v>20</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4" t="s">
+      <c r="E21" s="21"/>
+      <c r="F21" s="21" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="4">
+      <c r="A22" s="21">
         <v>21</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="21">
         <v>5000</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="21" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="4">
+      <c r="A23" s="21">
         <v>22</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="4">
+      <c r="A24" s="21">
         <v>23</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="4">
+      <c r="A25" s="21">
         <v>24</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="4">
+      <c r="A26" s="21">
         <v>25</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="21">
         <v>2000</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F26" s="21" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="4">
+      <c r="A27" s="21">
         <v>26</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4" t="s">
+      <c r="E27" s="21"/>
+      <c r="F27" s="21" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="4">
+      <c r="A28" s="21">
         <v>27</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4" t="s">
+      <c r="E28" s="21"/>
+      <c r="F28" s="21" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="4">
+    <row r="29" ht="14.25" spans="1:6">
+      <c r="A29" s="21">
         <v>28</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="4">
+      <c r="E29" s="21"/>
+      <c r="F29" s="22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" ht="14.25" spans="1:6">
+      <c r="A30" s="21">
         <v>29</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30" s="21"/>
+      <c r="F30" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="4" t="s">
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="21">
+        <v>30</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="21">
         <v>31</v>
       </c>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="4">
+      <c r="B32" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="21">
+        <v>32</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="E33" s="21">
+        <v>990</v>
+      </c>
+      <c r="F33" s="21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="21">
+        <v>33</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21">
+        <v>2000</v>
+      </c>
+      <c r="F34" s="21"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="21">
+        <v>34</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="21">
+        <v>35</v>
+      </c>
+      <c r="B36" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="21">
+        <v>36</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="21">
+        <v>37</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="21">
+        <v>38</v>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E39" s="21">
+        <v>7000</v>
+      </c>
+      <c r="F39" s="21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="21">
+        <v>39</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="21">
+        <v>40</v>
+      </c>
+      <c r="B41" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" s="21"/>
+      <c r="E41" s="21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="21">
+        <v>41</v>
+      </c>
+      <c r="B42" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" s="21"/>
+      <c r="D42" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E42" s="21">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="21">
+        <v>42</v>
+      </c>
+      <c r="B43" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="E43" s="17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="21">
+        <v>43</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="21">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="21">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="21">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="21">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="21">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="F41" sqref="F41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="2" max="2" width="18.25" customWidth="1"/>
+    <col min="3" max="3" width="31.625" customWidth="1"/>
+    <col min="4" max="4" width="81.625" customWidth="1"/>
+    <col min="5" max="5" width="18.375" customWidth="1"/>
+    <col min="6" max="6" width="102.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:5">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:6">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:5">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:6">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:5">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:6">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="14.25" spans="1:5">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:5">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" s="2" customFormat="1" spans="1:6">
+      <c r="A10" s="10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" spans="1:6">
+      <c r="A11" s="10">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" s="2" customFormat="1" spans="1:6">
+      <c r="A12" s="10">
+        <v>11</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" s="2" customFormat="1" spans="1:6">
+      <c r="A13" s="10">
+        <v>12</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" s="2" customFormat="1" spans="1:6">
+      <c r="A14" s="10">
+        <v>13</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" s="2" customFormat="1" spans="1:6">
+      <c r="A15" s="10">
+        <v>14</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" s="2" customFormat="1" spans="1:6">
+      <c r="A16" s="10">
+        <v>15</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" s="2" customFormat="1" spans="1:6">
+      <c r="A17" s="10">
+        <v>16</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" s="3" customFormat="1" spans="1:6">
+      <c r="A18" s="11">
+        <v>17</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" s="3" customFormat="1" spans="1:6">
+      <c r="A19" s="11">
+        <v>18</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" s="3" customFormat="1" spans="1:6">
+      <c r="A20" s="11">
+        <v>19</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" s="3" customFormat="1" spans="1:6">
+      <c r="A21" s="11">
+        <v>20</v>
+      </c>
+      <c r="B21" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="4">
+      <c r="C21" s="11"/>
+      <c r="D21" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="E21" s="11"/>
+      <c r="F21" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" s="3" customFormat="1" spans="1:6">
+      <c r="A22" s="11">
+        <v>21</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" s="3" customFormat="1" spans="1:6">
+      <c r="A23" s="11">
+        <v>22</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" s="3" customFormat="1" spans="1:6">
+      <c r="A24" s="11">
+        <v>23</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" s="3" customFormat="1" spans="1:6">
+      <c r="A25" s="11">
+        <v>24</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" s="4" customFormat="1" spans="1:6">
+      <c r="A26" s="12">
+        <v>25</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" s="4" customFormat="1" spans="1:6">
+      <c r="A27" s="12">
+        <v>26</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="28" s="4" customFormat="1" spans="1:6">
+      <c r="A28" s="12">
+        <v>27</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" s="4" customFormat="1" spans="1:6">
+      <c r="A29" s="12">
+        <v>28</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="30" s="4" customFormat="1" spans="1:6">
+      <c r="A30" s="12">
+        <v>29</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="31" s="4" customFormat="1" spans="1:6">
+      <c r="A31" s="12">
+        <v>30</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="32" s="4" customFormat="1" spans="1:6">
+      <c r="A32" s="12">
         <v>31</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="4">
+      <c r="B32" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="33" s="4" customFormat="1" spans="1:6">
+      <c r="A33" s="12">
         <v>32</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E33" s="5">
-        <v>990</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="4">
+      <c r="B33" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="34" s="5" customFormat="1" ht="14.25" spans="1:6">
+      <c r="A34" s="14">
         <v>33</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F34" s="4"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="4">
+      <c r="B34" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="C34" s="14"/>
+      <c r="D34" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="E34" s="14"/>
+      <c r="F34" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="35" s="5" customFormat="1" spans="1:6">
+      <c r="A35" s="14">
         <v>34</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="4">
+      <c r="B35" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="36" s="5" customFormat="1" spans="1:6">
+      <c r="A36" s="14">
         <v>35</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="4">
+      <c r="B36" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="37" s="5" customFormat="1" spans="1:6">
+      <c r="A37" s="14">
         <v>36</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="4">
+      <c r="B37" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="E37" s="14"/>
+      <c r="F37" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="38" s="5" customFormat="1" spans="1:6">
+      <c r="A38" s="14">
         <v>37</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="4">
+      <c r="B38" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="E38" s="14"/>
+      <c r="F38" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="39" s="5" customFormat="1" spans="1:6">
+      <c r="A39" s="14">
         <v>38</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C39" s="4" t="s">
+      <c r="B39" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="40" s="6" customFormat="1" spans="1:6">
+      <c r="A40" s="16">
+        <v>39</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="41" s="6" customFormat="1" spans="1:6">
+      <c r="A41" s="16">
+        <v>40</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="42" s="6" customFormat="1" spans="1:6">
+      <c r="A42" s="16">
+        <v>41</v>
+      </c>
+      <c r="B42" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="43" s="6" customFormat="1" spans="1:6">
+      <c r="A43" s="16">
+        <v>42</v>
+      </c>
+      <c r="B43" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="C43" s="16"/>
+      <c r="F43" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="44" s="6" customFormat="1" spans="1:6">
+      <c r="A44" s="16">
+        <v>43</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="C44" s="16"/>
+      <c r="F44" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="45" s="6" customFormat="1" spans="1:6">
+      <c r="A45" s="16">
+        <v>44</v>
+      </c>
+      <c r="B45" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="C45" s="16"/>
+      <c r="F45" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="17">
+        <v>45</v>
+      </c>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="17">
+        <v>46</v>
+      </c>
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="17">
         <v>47</v>
       </c>
-      <c r="E39" s="4">
-        <v>7000</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="4">
-        <v>39</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="4">
-        <v>40</v>
-      </c>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41"/>
-      <c r="E41" s="4"/>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="4">
-        <v>41</v>
-      </c>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42"/>
-      <c r="E42" s="4"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/远洋装修预算方案.xlsx
+++ b/远洋装修预算方案.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="154">
   <si>
     <t>序号</t>
   </si>
@@ -219,6 +219,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF121212"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>施耐德、</t>
     </r>
     <r>
@@ -439,9 +445,18 @@
     <t>龙骨</t>
   </si>
   <si>
+    <t>伟业神锤、泰山、龙牌、可耐福</t>
+  </si>
+  <si>
+    <t>吊顶所需配件，分木质龙骨和轻钢龙骨</t>
+  </si>
+  <si>
     <t>密封胶</t>
   </si>
   <si>
+    <t>吊顶所需配件，选用MS（硅烷改性聚醚），</t>
+  </si>
+  <si>
     <t>牛皮纸</t>
   </si>
   <si>
@@ -472,7 +487,7 @@
     <t>砖头</t>
   </si>
   <si>
-    <t>汉高百得、摩利美涂、美蛙、美巢的墙固</t>
+    <t>汉高百得、摩利美涂、美蛙、美巢的彩色墙固/地固</t>
   </si>
   <si>
     <t>墙地面辅材（要选用墙面固化胶和地面固化胶），不要用107、108胶，甲醛含量高，墙地固涂刷应在找平后进行</t>
@@ -487,13 +502,16 @@
     <t>墙地面辅材（采用水性美缝剂）</t>
   </si>
   <si>
-    <t>防水卷材</t>
+    <t>防水涂料</t>
+  </si>
+  <si>
+    <t>雨虹、德高的彩色防水涂料</t>
+  </si>
+  <si>
+    <t>防水所需辅材(采用JS防水涂料，最次采用丙烯酸类防水涂料)，遵循墙刚地柔原则，选择通过“十环”认证的产品</t>
   </si>
   <si>
     <t>防水所需辅材</t>
-  </si>
-  <si>
-    <t>防水涂料</t>
   </si>
   <si>
     <t>滚筒</t>
@@ -537,14 +555,14 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="9"/>
+      <sz val="11.5"/>
+      <color rgb="FF121212"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11.5"/>
-      <color rgb="FF121212"/>
+      <sz val="11"/>
+      <color indexed="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -671,9 +689,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -686,8 +703,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -699,7 +717,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -744,13 +762,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.6"/>
+        <fgColor theme="4" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -768,6 +780,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -786,157 +810,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1055,145 +1067,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1234,37 +1246,37 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1602,689 +1614,689 @@
     <col min="6" max="6" width="107" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="18" customFormat="1" spans="1:6">
-      <c r="A1" s="19" t="s">
+    <row r="1" s="19" customFormat="1" spans="1:6">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="21" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="21">
+      <c r="A2" s="18">
         <v>1</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="21">
+      <c r="E2" s="18">
         <v>3000</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="21">
+      <c r="A3" s="18">
         <v>2</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="18">
         <v>8000</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="18" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="21">
+      <c r="A4" s="18">
         <v>3</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="18">
         <v>3060</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="18" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="21">
+      <c r="A5" s="18">
         <v>4</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="18">
         <v>4840</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="18" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="21">
+      <c r="A6" s="18">
         <v>5</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21" t="s">
+      <c r="E6" s="18"/>
+      <c r="F6" s="18" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="21">
+      <c r="A7" s="18">
         <v>6</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="18">
         <v>1840</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="18" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="21">
+      <c r="A8" s="18">
         <v>7</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21" t="s">
+      <c r="E8" s="18"/>
+      <c r="F8" s="18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="21">
+      <c r="A9" s="18">
         <v>8</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="21">
+      <c r="A10" s="18">
         <v>9</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="21">
+      <c r="A11" s="18">
         <v>10</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="21">
+      <c r="A12" s="18">
         <v>11</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="18">
         <v>1600</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="F12" s="18" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="21">
+      <c r="A13" s="18">
         <v>12</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="21">
+      <c r="A14" s="18">
         <v>13</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="18">
         <v>2500</v>
       </c>
-      <c r="F14" s="21" t="s">
+      <c r="F14" s="18" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="21">
+      <c r="A15" s="18">
         <v>14</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="18">
         <v>1200</v>
       </c>
-      <c r="F15" s="21"/>
+      <c r="F15" s="18"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="21">
+      <c r="A16" s="18">
         <v>15</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="E16" s="21">
+      <c r="C16" s="18"/>
+      <c r="E16" s="18">
         <v>5000</v>
       </c>
-      <c r="F16" s="21" t="s">
+      <c r="F16" s="18" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="21">
+      <c r="A17" s="18">
         <v>16</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="21">
+      <c r="A18" s="18">
         <v>17</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="21">
+      <c r="A19" s="18">
         <v>18</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="21">
+      <c r="A20" s="18">
         <v>19</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="21">
+      <c r="A21" s="18">
         <v>20</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21" t="s">
+      <c r="E21" s="18"/>
+      <c r="F21" s="18" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="21">
+      <c r="A22" s="18">
         <v>21</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="21" t="s">
+      <c r="D22" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E22" s="18">
         <v>5000</v>
       </c>
-      <c r="F22" s="21" t="s">
+      <c r="F22" s="18" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="21">
+      <c r="A23" s="18">
         <v>22</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="21">
+      <c r="A24" s="18">
         <v>23</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="21">
+      <c r="A25" s="18">
         <v>24</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="21">
+      <c r="A26" s="18">
         <v>25</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="E26" s="21">
+      <c r="E26" s="18">
         <v>2000</v>
       </c>
-      <c r="F26" s="21" t="s">
+      <c r="F26" s="18" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="21">
+      <c r="A27" s="18">
         <v>26</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21" t="s">
+      <c r="E27" s="18"/>
+      <c r="F27" s="18" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="21">
+      <c r="A28" s="18">
         <v>27</v>
       </c>
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="21" t="s">
+      <c r="C28" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="D28" s="21" t="s">
+      <c r="D28" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21" t="s">
+      <c r="E28" s="18"/>
+      <c r="F28" s="18" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="29" ht="14.25" spans="1:6">
-      <c r="A29" s="21">
+      <c r="A29" s="18">
         <v>28</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="C29" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E29" s="21"/>
+      <c r="E29" s="18"/>
       <c r="F29" s="22" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="30" ht="14.25" spans="1:6">
-      <c r="A30" s="21">
+      <c r="A30" s="18">
         <v>29</v>
       </c>
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="C30" s="21" t="s">
+      <c r="C30" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E30" s="21"/>
+      <c r="E30" s="18"/>
       <c r="F30" s="22" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="21">
+      <c r="A31" s="18">
         <v>30</v>
       </c>
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="C31" s="21" t="s">
+      <c r="C31" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="21">
+      <c r="A32" s="18">
         <v>31</v>
       </c>
-      <c r="B32" s="21" t="s">
+      <c r="B32" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="C32" s="21" t="s">
+      <c r="C32" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="21">
+      <c r="A33" s="18">
         <v>32</v>
       </c>
-      <c r="B33" s="21" t="s">
+      <c r="B33" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="C33" s="21" t="s">
+      <c r="C33" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D33" s="21" t="s">
+      <c r="D33" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="E33" s="21">
+      <c r="E33" s="18">
         <v>990</v>
       </c>
-      <c r="F33" s="21" t="s">
+      <c r="F33" s="18" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="21">
+      <c r="A34" s="18">
         <v>33</v>
       </c>
-      <c r="B34" s="21" t="s">
+      <c r="B34" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="C34" s="21" t="s">
+      <c r="C34" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21">
+      <c r="D34" s="18"/>
+      <c r="E34" s="18">
         <v>2000</v>
       </c>
-      <c r="F34" s="21"/>
+      <c r="F34" s="18"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="21">
+      <c r="A35" s="18">
         <v>34</v>
       </c>
-      <c r="B35" s="21" t="s">
+      <c r="B35" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="C35" s="21" t="s">
+      <c r="C35" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="21">
+      <c r="A36" s="18">
         <v>35</v>
       </c>
-      <c r="B36" s="21" t="s">
+      <c r="B36" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="C36" s="21" t="s">
+      <c r="C36" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="21">
+      <c r="A37" s="18">
         <v>36</v>
       </c>
-      <c r="B37" s="21" t="s">
+      <c r="B37" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="C37" s="21" t="s">
+      <c r="C37" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="21">
+      <c r="A38" s="18">
         <v>37</v>
       </c>
-      <c r="B38" s="21" t="s">
+      <c r="B38" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="C38" s="21" t="s">
+      <c r="C38" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="21">
+      <c r="A39" s="18">
         <v>38</v>
       </c>
-      <c r="B39" s="21" t="s">
+      <c r="B39" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="C39" s="21" t="s">
+      <c r="C39" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="E39" s="21">
+      <c r="E39" s="18">
         <v>7000</v>
       </c>
-      <c r="F39" s="21" t="s">
+      <c r="F39" s="18" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="21">
+      <c r="A40" s="18">
         <v>39</v>
       </c>
-      <c r="B40" s="21" t="s">
+      <c r="B40" s="18" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="21">
+      <c r="A41" s="18">
         <v>40</v>
       </c>
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="C41" s="21"/>
-      <c r="E41" s="21" t="s">
+      <c r="C41" s="18"/>
+      <c r="E41" s="18" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="21">
+      <c r="A42" s="18">
         <v>41</v>
       </c>
-      <c r="B42" s="21" t="s">
+      <c r="B42" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="C42" s="21"/>
-      <c r="D42" s="17" t="s">
+      <c r="C42" s="18"/>
+      <c r="D42" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="E42" s="21">
+      <c r="E42" s="18">
         <v>2500</v>
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="21">
+      <c r="A43" s="18">
         <v>42</v>
       </c>
-      <c r="B43" s="21" t="s">
+      <c r="B43" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="E43" s="17" t="s">
+      <c r="E43" s="18" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="21">
+      <c r="A44" s="18">
         <v>43</v>
       </c>
-      <c r="B44" s="17" t="s">
+      <c r="B44" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="C44" s="17" t="s">
+      <c r="C44" s="18" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="21">
+      <c r="A45" s="18">
         <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="21">
+      <c r="A46" s="18">
         <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="21">
+      <c r="A47" s="18">
         <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="21">
+      <c r="A48" s="18">
         <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="21">
+      <c r="A49" s="18">
         <v>48</v>
       </c>
     </row>
@@ -2297,12 +2309,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F41" sqref="F41"/>
+      <selection pane="bottomLeft" activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2683,7 +2695,7 @@
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
-      <c r="F26" s="13" t="s">
+      <c r="F26" s="4" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2697,7 +2709,7 @@
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
-      <c r="F27" s="13" t="s">
+      <c r="F27" s="4" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2709,10 +2721,12 @@
         <v>127</v>
       </c>
       <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
+      <c r="D28" s="12" t="s">
+        <v>128</v>
+      </c>
       <c r="E28" s="12"/>
-      <c r="F28" s="13" t="s">
-        <v>125</v>
+      <c r="F28" s="4" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="29" s="4" customFormat="1" spans="1:6">
@@ -2720,13 +2734,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
-      <c r="F29" s="13" t="s">
-        <v>125</v>
+      <c r="F29" s="4" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="30" s="4" customFormat="1" spans="1:6">
@@ -2734,12 +2748,12 @@
         <v>29</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
-      <c r="F30" s="13" t="s">
+      <c r="F30" s="4" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2748,12 +2762,12 @@
         <v>30</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
-      <c r="F31" s="13" t="s">
+      <c r="F31" s="4" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2762,12 +2776,12 @@
         <v>31</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
-      <c r="F32" s="13" t="s">
+      <c r="F32" s="4" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2776,203 +2790,191 @@
         <v>32</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
-      <c r="F33" s="13" t="s">
+      <c r="F33" s="4" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="34" s="5" customFormat="1" ht="14.25" spans="1:6">
-      <c r="A34" s="14">
+      <c r="A34" s="13">
         <v>33</v>
       </c>
-      <c r="B34" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="C34" s="14"/>
-      <c r="D34" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="E34" s="14"/>
+      <c r="B34" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="C34" s="13"/>
+      <c r="D34" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="E34" s="13"/>
       <c r="F34" s="5" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="35" s="5" customFormat="1" spans="1:6">
-      <c r="A35" s="14">
+      <c r="A35" s="13">
         <v>34</v>
       </c>
-      <c r="B35" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
+      <c r="B35" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
       <c r="F35" s="5" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="36" s="5" customFormat="1" spans="1:6">
-      <c r="A36" s="14">
+      <c r="A36" s="13">
         <v>35</v>
       </c>
-      <c r="B36" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
+      <c r="B36" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
       <c r="F36" s="5" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="37" s="5" customFormat="1" spans="1:6">
-      <c r="A37" s="14">
+      <c r="A37" s="13">
         <v>36</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="B37" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14" t="s">
+      <c r="C37" s="13"/>
+      <c r="D37" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="E37" s="13"/>
+      <c r="F37" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="38" s="5" customFormat="1" spans="1:6">
+      <c r="A38" s="13">
+        <v>37</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="E38" s="13"/>
+      <c r="F38" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="39" s="5" customFormat="1" spans="1:6">
+      <c r="A39" s="13">
+        <v>38</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="40" s="6" customFormat="1" spans="1:6">
+      <c r="A40" s="15">
+        <v>39</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="C40" s="15"/>
+      <c r="D40" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="E40" s="15"/>
+      <c r="F40" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="41" s="6" customFormat="1" spans="1:6">
+      <c r="A41" s="15">
+        <v>40</v>
+      </c>
+      <c r="B41" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="E37" s="14"/>
-      <c r="F37" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="38" s="5" customFormat="1" spans="1:6">
-      <c r="A38" s="14">
-        <v>37</v>
-      </c>
-      <c r="B38" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="E38" s="14"/>
-      <c r="F38" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="39" s="5" customFormat="1" spans="1:6">
-      <c r="A39" s="14">
-        <v>38</v>
-      </c>
-      <c r="B39" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="40" s="6" customFormat="1" spans="1:6">
-      <c r="A40" s="16">
-        <v>39</v>
-      </c>
-      <c r="B40" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="41" s="6" customFormat="1" spans="1:6">
-      <c r="A41" s="16">
-        <v>40</v>
-      </c>
-      <c r="B41" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
       <c r="F41" s="6" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="42" s="6" customFormat="1" spans="1:6">
-      <c r="A42" s="16">
+      <c r="A42" s="15">
         <v>41</v>
       </c>
-      <c r="B42" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
+      <c r="B42" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="C42" s="15"/>
       <c r="F42" s="6" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="43" s="6" customFormat="1" spans="1:6">
-      <c r="A43" s="16">
+      <c r="A43" s="15">
         <v>42</v>
       </c>
-      <c r="B43" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="C43" s="16"/>
+      <c r="B43" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="C43" s="15"/>
       <c r="F43" s="6" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="44" s="6" customFormat="1" spans="1:6">
-      <c r="A44" s="16">
+      <c r="A44" s="15">
         <v>43</v>
       </c>
-      <c r="B44" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="C44" s="16"/>
+      <c r="B44" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="C44" s="15"/>
       <c r="F44" s="6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="45" s="6" customFormat="1" spans="1:6">
-      <c r="A45" s="16">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="17">
         <v>44</v>
       </c>
-      <c r="B45" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="C45" s="16"/>
-      <c r="F45" s="6" t="s">
-        <v>145</v>
-      </c>
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="17">
         <v>45</v>
       </c>
-      <c r="B46" s="17"/>
-      <c r="C46" s="17"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="18"/>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="17">
         <v>46</v>
       </c>
-      <c r="B47" s="17"/>
-      <c r="C47" s="17"/>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="17">
-        <v>47</v>
-      </c>
-      <c r="B48" s="17"/>
-      <c r="C48" s="17"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/远洋装修预算方案.xlsx
+++ b/远洋装修预算方案.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24000" windowHeight="9840" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9840"/>
   </bookViews>
   <sheets>
     <sheet name="预算" sheetId="1" r:id="rId1"/>
     <sheet name="辅料" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="114210"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="156">
   <si>
     <t>序号</t>
   </si>
@@ -221,7 +221,7 @@
     <r>
       <rPr>
         <sz val="11.5"/>
-        <color rgb="FF121212"/>
+        <color indexed="8"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
@@ -230,16 +230,16 @@
     <r>
       <rPr>
         <sz val="11.5"/>
-        <color rgb="FF121212"/>
+        <color indexed="8"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>ABB</t>
     </r>
     <r>
       <rPr>
         <sz val="11.5"/>
-        <color rgb="FF121212"/>
+        <color indexed="8"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
@@ -248,16 +248,16 @@
     <r>
       <rPr>
         <sz val="11.5"/>
-        <color rgb="FF121212"/>
+        <color indexed="8"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>TCL-</t>
     </r>
     <r>
       <rPr>
         <sz val="11.5"/>
-        <color rgb="FF121212"/>
+        <color indexed="8"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
@@ -522,18 +522,20 @@
   <si>
     <t>回填陶粒</t>
   </si>
+  <si>
+    <t>暗盒</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量是开关和插座之和</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -543,20 +545,19 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color indexed="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11.25"/>
-      <color rgb="FF121212"/>
+      <color indexed="8"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11.5"/>
-      <color rgb="FF121212"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -567,157 +568,18 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="11.5"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11.5"/>
-      <color rgb="FF121212"/>
-      <name val="Arial"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -726,43 +588,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.6"/>
+        <fgColor indexed="27"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.6"/>
+        <fgColor indexed="47"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.6"/>
+        <fgColor indexed="22"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.8"/>
+        <fgColor indexed="43"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -772,188 +616,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -961,277 +625,32 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1240,103 +659,42 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1592,21 +950,20 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="3" width="25.5" customWidth="1"/>
     <col min="4" max="4" width="35.875" customWidth="1"/>
@@ -1614,710 +971,714 @@
     <col min="6" max="6" width="107" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="19" customFormat="1" spans="1:6">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:6" s="16" customFormat="1">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="18">
+    <row r="2" spans="1:6">
+      <c r="A2" s="15">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="18">
+      <c r="E2" s="15">
         <v>3000</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="18">
+      <c r="A3" s="15">
         <v>2</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="15">
         <v>8000</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="15" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="18">
+      <c r="A4" s="15">
         <v>3</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="15">
         <v>3060</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="18">
+      <c r="A5" s="15">
         <v>4</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="15">
         <v>4840</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="15" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="18">
+      <c r="A6" s="15">
         <v>5</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18" t="s">
+      <c r="E6" s="15"/>
+      <c r="F6" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="18">
+      <c r="A7" s="15">
         <v>6</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="15">
         <v>1840</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="15" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="18">
+      <c r="A8" s="15">
         <v>7</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18" t="s">
+      <c r="E8" s="15"/>
+      <c r="F8" s="15" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="18">
+      <c r="A9" s="15">
         <v>8</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="18">
+      <c r="A10" s="15">
         <v>9</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="18">
+      <c r="A11" s="15">
         <v>10</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="18">
+      <c r="A12" s="15">
         <v>11</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="15">
         <v>1600</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="15" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="18">
+      <c r="A13" s="15">
         <v>12</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="18">
+      <c r="A14" s="15">
         <v>13</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="15">
         <v>2500</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="15" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="18">
+      <c r="A15" s="15">
         <v>14</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="15">
         <v>1200</v>
       </c>
-      <c r="F15" s="18"/>
+      <c r="F15" s="15"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="18">
+      <c r="A16" s="15">
         <v>15</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="E16" s="18">
+      <c r="C16" s="15"/>
+      <c r="E16" s="15">
         <v>5000</v>
       </c>
-      <c r="F16" s="18" t="s">
+      <c r="F16" s="15" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="18">
+      <c r="A17" s="15">
         <v>16</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="18">
+      <c r="A18" s="15">
         <v>17</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="18">
+      <c r="A19" s="15">
         <v>18</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="18">
+      <c r="A20" s="15">
         <v>19</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="18">
+      <c r="A21" s="15">
         <v>20</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18" t="s">
+      <c r="E21" s="15"/>
+      <c r="F21" s="15" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="18">
+      <c r="A22" s="15">
         <v>21</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="E22" s="18">
+      <c r="E22" s="15">
         <v>5000</v>
       </c>
-      <c r="F22" s="18" t="s">
+      <c r="F22" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="18">
+      <c r="A23" s="15">
         <v>22</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="18">
+      <c r="A24" s="15">
         <v>23</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="18">
+      <c r="A25" s="15">
         <v>24</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="18">
+      <c r="A26" s="15">
         <v>25</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="E26" s="18">
+      <c r="E26" s="15">
         <v>2000</v>
       </c>
-      <c r="F26" s="18" t="s">
+      <c r="F26" s="15" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="18">
+      <c r="A27" s="15">
         <v>26</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18" t="s">
+      <c r="E27" s="15"/>
+      <c r="F27" s="15" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="18">
+      <c r="A28" s="15">
         <v>27</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="D28" s="18" t="s">
+      <c r="D28" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18" t="s">
+      <c r="E28" s="15"/>
+      <c r="F28" s="15" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="29" ht="14.25" spans="1:6">
-      <c r="A29" s="18">
+    <row r="29" spans="1:6" ht="14.25">
+      <c r="A29" s="15">
         <v>28</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E29" s="18"/>
-      <c r="F29" s="22" t="s">
+      <c r="E29" s="15"/>
+      <c r="F29" s="18" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="30" ht="14.25" spans="1:6">
-      <c r="A30" s="18">
+    <row r="30" spans="1:6" ht="14.25">
+      <c r="A30" s="15">
         <v>29</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E30" s="18"/>
-      <c r="F30" s="22" t="s">
+      <c r="E30" s="15"/>
+      <c r="F30" s="18" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="18">
+      <c r="A31" s="15">
         <v>30</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="18">
+      <c r="A32" s="15">
         <v>31</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="18">
+      <c r="A33" s="15">
         <v>32</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C33" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D33" s="18" t="s">
+      <c r="D33" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="E33" s="18">
+      <c r="E33" s="15">
         <v>990</v>
       </c>
-      <c r="F33" s="18" t="s">
+      <c r="F33" s="15" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="18">
+      <c r="A34" s="15">
         <v>33</v>
       </c>
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="C34" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18">
+      <c r="D34" s="15"/>
+      <c r="E34" s="15">
         <v>2000</v>
       </c>
-      <c r="F34" s="18"/>
+      <c r="F34" s="15"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="18">
+      <c r="A35" s="15">
         <v>34</v>
       </c>
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="C35" s="18" t="s">
+      <c r="C35" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="18">
+      <c r="A36" s="15">
         <v>35</v>
       </c>
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="C36" s="18" t="s">
+      <c r="C36" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="18">
+      <c r="A37" s="15">
         <v>36</v>
       </c>
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="C37" s="18" t="s">
+      <c r="C37" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="18">
+      <c r="A38" s="15">
         <v>37</v>
       </c>
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="C38" s="18" t="s">
+      <c r="C38" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="18">
+      <c r="A39" s="15">
         <v>38</v>
       </c>
-      <c r="B39" s="18" t="s">
+      <c r="B39" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="C39" s="18" t="s">
+      <c r="C39" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="E39" s="18">
+      <c r="E39" s="15">
         <v>7000</v>
       </c>
-      <c r="F39" s="18" t="s">
+      <c r="F39" s="15" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="18">
+    <row r="40" spans="1:6">
+      <c r="A40" s="15">
         <v>39</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="15" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="18">
+    <row r="41" spans="1:6">
+      <c r="A41" s="15">
         <v>40</v>
       </c>
-      <c r="B41" s="18" t="s">
+      <c r="B41" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="C41" s="18"/>
-      <c r="E41" s="18" t="s">
+      <c r="C41" s="15"/>
+      <c r="E41" s="15" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="18">
+    <row r="42" spans="1:6">
+      <c r="A42" s="15">
         <v>41</v>
       </c>
-      <c r="B42" s="18" t="s">
+      <c r="B42" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18" t="s">
+      <c r="C42" s="15"/>
+      <c r="D42" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="E42" s="18">
+      <c r="E42" s="15">
         <v>2500</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="18">
+    <row r="43" spans="1:6">
+      <c r="A43" s="15">
         <v>42</v>
       </c>
-      <c r="B43" s="18" t="s">
+      <c r="B43" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="E43" s="18" t="s">
+      <c r="E43" s="15" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="18">
+    <row r="44" spans="1:6">
+      <c r="A44" s="15">
         <v>43</v>
       </c>
-      <c r="B44" s="18" t="s">
+      <c r="B44" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="C44" s="18" t="s">
+      <c r="C44" s="15" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="18">
+    <row r="45" spans="1:6">
+      <c r="A45" s="15">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="18">
+      <c r="B45" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="F45" s="15" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="15">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="18">
+    <row r="47" spans="1:6">
+      <c r="A47" s="15">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="18">
+    <row r="48" spans="1:6">
+      <c r="A48" s="15">
         <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="18">
+      <c r="A49" s="15">
         <v>48</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="F29" sqref="F29"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="18.25" customWidth="1"/>
     <col min="3" max="3" width="31.625" customWidth="1"/>
@@ -2327,657 +1688,657 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:5">
-      <c r="A2" s="8">
+    <row r="2" spans="1:6" s="1" customFormat="1">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:6">
-      <c r="A3" s="8">
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="1:6" s="1" customFormat="1">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
       <c r="F3" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:5">
-      <c r="A4" s="8">
+    <row r="4" spans="1:6" s="1" customFormat="1">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:6">
-      <c r="A5" s="8">
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="1:6" s="1" customFormat="1">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
       <c r="F5" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:5">
-      <c r="A6" s="8">
+    <row r="6" spans="1:6" s="1" customFormat="1">
+      <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:6">
-      <c r="A7" s="8">
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" spans="1:6" s="1" customFormat="1">
+      <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
       <c r="F7" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="14.25" spans="1:5">
-      <c r="A8" s="8">
+    <row r="8" spans="1:6" s="1" customFormat="1" ht="14.25">
+      <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="1:5">
-      <c r="A9" s="8">
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="1:6" s="1" customFormat="1">
+      <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" s="2" customFormat="1" spans="1:6">
-      <c r="A10" s="10">
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" spans="1:6" s="2" customFormat="1">
+      <c r="A10" s="9">
         <v>9</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
       <c r="F10" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="11" s="2" customFormat="1" spans="1:6">
-      <c r="A11" s="10">
+    <row r="11" spans="1:6" s="2" customFormat="1">
+      <c r="A11" s="9">
         <v>10</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
       <c r="F11" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="12" s="2" customFormat="1" spans="1:6">
-      <c r="A12" s="10">
+    <row r="12" spans="1:6" s="2" customFormat="1">
+      <c r="A12" s="9">
         <v>11</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10" t="s">
+      <c r="C12" s="9"/>
+      <c r="D12" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="E12" s="10"/>
+      <c r="E12" s="9"/>
       <c r="F12" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="13" s="2" customFormat="1" spans="1:6">
-      <c r="A13" s="10">
+    <row r="13" spans="1:6" s="2" customFormat="1">
+      <c r="A13" s="9">
         <v>12</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
       <c r="F13" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="14" s="2" customFormat="1" spans="1:6">
-      <c r="A14" s="10">
+    <row r="14" spans="1:6" s="2" customFormat="1">
+      <c r="A14" s="9">
         <v>13</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
       <c r="F14" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="15" s="2" customFormat="1" spans="1:6">
-      <c r="A15" s="10">
+    <row r="15" spans="1:6" s="2" customFormat="1">
+      <c r="A15" s="9">
         <v>14</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
       <c r="F15" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="16" s="2" customFormat="1" spans="1:6">
-      <c r="A16" s="10">
+    <row r="16" spans="1:6" s="2" customFormat="1">
+      <c r="A16" s="9">
         <v>15</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
       <c r="F16" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="17" s="2" customFormat="1" spans="1:6">
-      <c r="A17" s="10">
+    <row r="17" spans="1:6" s="2" customFormat="1">
+      <c r="A17" s="9">
         <v>16</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
       <c r="F17" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="18" s="3" customFormat="1" spans="1:6">
-      <c r="A18" s="11">
+    <row r="18" spans="1:6" s="3" customFormat="1">
+      <c r="A18" s="10">
         <v>17</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
       <c r="F18" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="19" s="3" customFormat="1" spans="1:6">
-      <c r="A19" s="11">
+    <row r="19" spans="1:6" s="3" customFormat="1">
+      <c r="A19" s="10">
         <v>18</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
       <c r="F19" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="20" s="3" customFormat="1" spans="1:6">
-      <c r="A20" s="11">
+    <row r="20" spans="1:6" s="3" customFormat="1">
+      <c r="A20" s="10">
         <v>19</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
       <c r="F20" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="21" s="3" customFormat="1" spans="1:6">
-      <c r="A21" s="11">
+    <row r="21" spans="1:6" s="3" customFormat="1">
+      <c r="A21" s="10">
         <v>20</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11" t="s">
+      <c r="C21" s="10"/>
+      <c r="D21" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="E21" s="11"/>
+      <c r="E21" s="10"/>
       <c r="F21" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="22" s="3" customFormat="1" spans="1:6">
-      <c r="A22" s="11">
+    <row r="22" spans="1:6" s="3" customFormat="1">
+      <c r="A22" s="10">
         <v>21</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
       <c r="F22" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="23" s="3" customFormat="1" spans="1:6">
-      <c r="A23" s="11">
+    <row r="23" spans="1:6" s="3" customFormat="1">
+      <c r="A23" s="10">
         <v>22</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
       <c r="F23" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="24" s="3" customFormat="1" spans="1:6">
-      <c r="A24" s="11">
+    <row r="24" spans="1:6" s="3" customFormat="1">
+      <c r="A24" s="10">
         <v>23</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
       <c r="F24" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="25" s="3" customFormat="1" spans="1:6">
-      <c r="A25" s="11">
+    <row r="25" spans="1:6" s="3" customFormat="1">
+      <c r="A25" s="10">
         <v>24</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
       <c r="F25" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="26" s="4" customFormat="1" spans="1:6">
-      <c r="A26" s="12">
+    <row r="26" spans="1:6" s="4" customFormat="1">
+      <c r="A26" s="11">
         <v>25</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
       <c r="F26" s="4" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="27" s="4" customFormat="1" spans="1:6">
-      <c r="A27" s="12">
+    <row r="27" spans="1:6" s="4" customFormat="1">
+      <c r="A27" s="11">
         <v>26</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
       <c r="F27" s="4" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="28" s="4" customFormat="1" spans="1:6">
-      <c r="A28" s="12">
+    <row r="28" spans="1:6" s="4" customFormat="1">
+      <c r="A28" s="11">
         <v>27</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12" t="s">
+      <c r="C28" s="11"/>
+      <c r="D28" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="E28" s="12"/>
+      <c r="E28" s="11"/>
       <c r="F28" s="4" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="29" s="4" customFormat="1" spans="1:6">
-      <c r="A29" s="12">
+    <row r="29" spans="1:6" s="4" customFormat="1">
+      <c r="A29" s="11">
         <v>28</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
       <c r="F29" s="4" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="30" s="4" customFormat="1" spans="1:6">
-      <c r="A30" s="12">
+    <row r="30" spans="1:6" s="4" customFormat="1">
+      <c r="A30" s="11">
         <v>29</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
       <c r="F30" s="4" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="31" s="4" customFormat="1" spans="1:6">
-      <c r="A31" s="12">
+    <row r="31" spans="1:6" s="4" customFormat="1">
+      <c r="A31" s="11">
         <v>30</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
       <c r="F31" s="4" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="32" s="4" customFormat="1" spans="1:6">
-      <c r="A32" s="12">
+    <row r="32" spans="1:6" s="4" customFormat="1">
+      <c r="A32" s="11">
         <v>31</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
       <c r="F32" s="4" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="33" s="4" customFormat="1" spans="1:6">
-      <c r="A33" s="12">
+    <row r="33" spans="1:6" s="4" customFormat="1">
+      <c r="A33" s="11">
         <v>32</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
       <c r="F33" s="4" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="34" s="5" customFormat="1" ht="14.25" spans="1:6">
-      <c r="A34" s="13">
+    <row r="34" spans="1:6" s="3" customFormat="1" ht="14.25">
+      <c r="A34" s="10">
         <v>33</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="14" t="s">
+      <c r="C34" s="10"/>
+      <c r="D34" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="E34" s="13"/>
-      <c r="F34" s="5" t="s">
+      <c r="E34" s="10"/>
+      <c r="F34" s="3" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="35" s="5" customFormat="1" spans="1:6">
-      <c r="A35" s="13">
+    <row r="35" spans="1:6" s="3" customFormat="1">
+      <c r="A35" s="10">
         <v>34</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="5" t="s">
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="36" s="5" customFormat="1" spans="1:6">
-      <c r="A36" s="13">
+    <row r="36" spans="1:6" s="3" customFormat="1">
+      <c r="A36" s="10">
         <v>35</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="5" t="s">
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="37" s="5" customFormat="1" spans="1:6">
-      <c r="A37" s="13">
+    <row r="37" spans="1:6" s="3" customFormat="1">
+      <c r="A37" s="10">
         <v>36</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13" t="s">
+      <c r="C37" s="10"/>
+      <c r="D37" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="E37" s="13"/>
-      <c r="F37" s="5" t="s">
+      <c r="E37" s="10"/>
+      <c r="F37" s="3" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="38" s="5" customFormat="1" spans="1:6">
-      <c r="A38" s="13">
+    <row r="38" spans="1:6" s="3" customFormat="1">
+      <c r="A38" s="10">
         <v>37</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13" t="s">
+      <c r="C38" s="10"/>
+      <c r="D38" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="E38" s="13"/>
-      <c r="F38" s="5" t="s">
+      <c r="E38" s="10"/>
+      <c r="F38" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="39" s="5" customFormat="1" spans="1:6">
-      <c r="A39" s="13">
+    <row r="39" spans="1:6" s="3" customFormat="1">
+      <c r="A39" s="10">
         <v>38</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="5" t="s">
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="40" s="6" customFormat="1" spans="1:6">
-      <c r="A40" s="15">
+    <row r="40" spans="1:6" s="5" customFormat="1">
+      <c r="A40" s="13">
         <v>39</v>
       </c>
-      <c r="B40" s="15" t="s">
+      <c r="B40" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="C40" s="15"/>
-      <c r="D40" s="16" t="s">
+      <c r="C40" s="13"/>
+      <c r="D40" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="E40" s="15"/>
-      <c r="F40" s="6" t="s">
+      <c r="E40" s="13"/>
+      <c r="F40" s="5" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="41" s="6" customFormat="1" spans="1:6">
-      <c r="A41" s="15">
+    <row r="41" spans="1:6" s="5" customFormat="1">
+      <c r="A41" s="13">
         <v>40</v>
       </c>
-      <c r="B41" s="15" t="s">
+      <c r="B41" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="6" t="s">
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="5" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="42" s="6" customFormat="1" spans="1:6">
-      <c r="A42" s="15">
+    <row r="42" spans="1:6" s="5" customFormat="1">
+      <c r="A42" s="13">
         <v>41</v>
       </c>
-      <c r="B42" s="15" t="s">
+      <c r="B42" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="C42" s="15"/>
-      <c r="F42" s="6" t="s">
+      <c r="C42" s="13"/>
+      <c r="F42" s="5" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="43" s="6" customFormat="1" spans="1:6">
-      <c r="A43" s="15">
+    <row r="43" spans="1:6" s="5" customFormat="1">
+      <c r="A43" s="13">
         <v>42</v>
       </c>
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="C43" s="15"/>
-      <c r="F43" s="6" t="s">
+      <c r="C43" s="13"/>
+      <c r="F43" s="5" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="44" s="6" customFormat="1" spans="1:6">
-      <c r="A44" s="15">
+    <row r="44" spans="1:6" s="5" customFormat="1">
+      <c r="A44" s="13">
         <v>43</v>
       </c>
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="C44" s="15"/>
-      <c r="F44" s="6" t="s">
+      <c r="C44" s="13"/>
+      <c r="F44" s="5" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="17">
+    <row r="45" spans="1:6">
+      <c r="A45" s="7">
         <v>44</v>
       </c>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="17">
+      <c r="B45" s="15"/>
+      <c r="C45" s="15"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="7">
         <v>45</v>
       </c>
-      <c r="B46" s="18"/>
-      <c r="C46" s="18"/>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="17">
+      <c r="B46" s="15"/>
+      <c r="C46" s="15"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="7">
         <v>46</v>
       </c>
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="15"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/远洋装修预算方案.xlsx
+++ b/远洋装修预算方案.xlsx
@@ -334,9 +334,6 @@
     <t>价格</t>
   </si>
   <si>
-    <t>水泥砂浆</t>
-  </si>
-  <si>
     <t>主卧、次卧、过道、卫生间、厨房</t>
   </si>
   <si>
@@ -528,6 +525,10 @@
   </si>
   <si>
     <t>数量是开关和插座之和</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>水泥砂浆</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -588,13 +589,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="27"/>
+        <fgColor indexed="47"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="47"/>
+        <fgColor indexed="43"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -606,7 +607,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="43"/>
+        <fgColor indexed="27"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -638,16 +639,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -659,22 +660,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -960,7 +961,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F45" sqref="F45"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1637,10 +1638,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="F45" s="15" t="s">
         <v>154</v>
-      </c>
-      <c r="F45" s="15" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1674,8 +1675,8 @@
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D41" sqref="D41"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1712,10 +1713,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
@@ -1725,15 +1726,15 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1">
@@ -1741,7 +1742,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>27</v>
@@ -1754,7 +1755,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>27</v>
@@ -1762,7 +1763,7 @@
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1">
@@ -1770,10 +1771,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
@@ -1783,7 +1784,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>20</v>
@@ -1791,7 +1792,7 @@
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="14.25">
@@ -1799,10 +1800,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
@@ -1812,7 +1813,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -1823,13 +1824,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="2" customFormat="1">
@@ -1837,13 +1838,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="2" customFormat="1">
@@ -1851,15 +1852,15 @@
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="2" customFormat="1">
@@ -1867,13 +1868,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="2" customFormat="1">
@@ -1887,7 +1888,7 @@
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
       <c r="F14" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="2" customFormat="1">
@@ -1895,13 +1896,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
       <c r="F15" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="2" customFormat="1">
@@ -1909,13 +1910,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
       <c r="F16" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="2" customFormat="1">
@@ -1923,13 +1924,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
       <c r="F17" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="3" customFormat="1">
@@ -1937,13 +1938,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="3" customFormat="1">
@@ -1951,13 +1952,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
       <c r="F19" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="3" customFormat="1">
@@ -1965,13 +1966,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
       <c r="F20" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="3" customFormat="1">
@@ -1983,11 +1984,11 @@
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="3" customFormat="1">
@@ -1995,13 +1996,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
       <c r="F22" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="3" customFormat="1">
@@ -2009,13 +2010,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
       <c r="F23" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="3" customFormat="1">
@@ -2023,13 +2024,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
       <c r="F24" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="3" customFormat="1">
@@ -2037,13 +2038,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
       <c r="F25" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="4" customFormat="1">
@@ -2051,13 +2052,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
       <c r="F26" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="4" customFormat="1">
@@ -2065,13 +2066,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
       <c r="F27" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="4" customFormat="1">
@@ -2079,15 +2080,15 @@
         <v>27</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E28" s="11"/>
       <c r="F28" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="4" customFormat="1">
@@ -2095,13 +2096,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
       <c r="F29" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="4" customFormat="1">
@@ -2109,13 +2110,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
       <c r="F30" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="4" customFormat="1">
@@ -2123,13 +2124,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="4" customFormat="1">
@@ -2137,13 +2138,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
       <c r="E32" s="11"/>
       <c r="F32" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="33" spans="1:6" s="4" customFormat="1">
@@ -2151,13 +2152,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
       <c r="F33" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="3" customFormat="1" ht="14.25">
@@ -2165,15 +2166,15 @@
         <v>33</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C34" s="10"/>
       <c r="D34" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E34" s="10"/>
       <c r="F34" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="3" customFormat="1">
@@ -2181,13 +2182,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="3" customFormat="1">
@@ -2195,13 +2196,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
       <c r="F36" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="3" customFormat="1">
@@ -2209,15 +2210,15 @@
         <v>36</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C37" s="10"/>
       <c r="D37" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E37" s="10"/>
       <c r="F37" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="38" spans="1:6" s="3" customFormat="1">
@@ -2225,15 +2226,15 @@
         <v>37</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C38" s="10"/>
       <c r="D38" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E38" s="10"/>
       <c r="F38" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="39" spans="1:6" s="3" customFormat="1">
@@ -2241,13 +2242,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C39" s="10"/>
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
       <c r="F39" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="40" spans="1:6" s="5" customFormat="1">
@@ -2255,15 +2256,15 @@
         <v>39</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C40" s="13"/>
       <c r="D40" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E40" s="13"/>
       <c r="F40" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="41" spans="1:6" s="5" customFormat="1">
@@ -2271,13 +2272,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
       <c r="E41" s="13"/>
       <c r="F41" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="42" spans="1:6" s="5" customFormat="1">
@@ -2285,11 +2286,11 @@
         <v>41</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C42" s="13"/>
       <c r="F42" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="43" spans="1:6" s="5" customFormat="1">
@@ -2297,11 +2298,11 @@
         <v>42</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C43" s="13"/>
       <c r="F43" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="44" spans="1:6" s="5" customFormat="1">
@@ -2309,11 +2310,11 @@
         <v>43</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C44" s="13"/>
       <c r="F44" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="45" spans="1:6">

--- a/远洋装修预算方案.xlsx
+++ b/远洋装修预算方案.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9840"/>
+    <workbookView windowWidth="24000" windowHeight="9840"/>
   </bookViews>
   <sheets>
     <sheet name="预算" sheetId="1" r:id="rId1"/>
     <sheet name="辅料" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="114210"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="160">
   <si>
     <t>序号</t>
   </si>
@@ -197,10 +197,13 @@
     <t>2个标准尺寸复合烤漆木门</t>
   </si>
   <si>
-    <t>铝合金门</t>
-  </si>
-  <si>
-    <t>2个标准尺寸铝合金木门</t>
+    <t>镁铝合金门</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 * </t>
+  </si>
+  <si>
+    <t>2个标准尺寸双包套镁铝合金</t>
   </si>
   <si>
     <t>轻体墙</t>
@@ -232,7 +235,7 @@
         <sz val="11.5"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>ABB</t>
     </r>
@@ -250,7 +253,7 @@
         <sz val="11.5"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>TCL-</t>
     </r>
@@ -328,12 +331,34 @@
     <t>潜水艇地漏</t>
   </si>
   <si>
+    <t>暗盒</t>
+  </si>
+  <si>
+    <t>数量是开关和插座之和</t>
+  </si>
+  <si>
+    <t>瓷砖胶</t>
+  </si>
+  <si>
+    <t>300*600的大概7kg/平
+厨房 = 7 * 27.6 = 193.2kg
+卫生间 = 7 * 15.53 = 108.71kg
+总共301.91kg，以20kg一袋计算，需要16袋瓷砖胶
+使用美巢占瓷宝ZCB4000的话，淘宝每20kg要54元，16袋是864元</t>
+  </si>
+  <si>
+    <t>美巢占瓷宝ZCB4000</t>
+  </si>
+  <si>
     <t>品牌型号</t>
   </si>
   <si>
     <t>价格</t>
   </si>
   <si>
+    <t>水泥砂浆</t>
+  </si>
+  <si>
     <t>主卧、次卧、过道、卫生间、厨房</t>
   </si>
   <si>
@@ -518,25 +543,19 @@
   </si>
   <si>
     <t>回填陶粒</t>
-  </si>
-  <si>
-    <t>暗盒</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>数量是开关和插座之和</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>水泥砂浆</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -554,7 +573,7 @@
       <sz val="11.25"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11.5"/>
@@ -564,23 +583,156 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11.5"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -617,8 +769,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -626,13 +964,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -684,18 +1264,73 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -951,48 +1586,49 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="3" width="25.5" customWidth="1"/>
-    <col min="4" max="4" width="35.875" customWidth="1"/>
+    <col min="4" max="4" width="89.625" customWidth="1"/>
     <col min="5" max="5" width="17.125" customWidth="1"/>
     <col min="6" max="6" width="107" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="16" customFormat="1">
-      <c r="A1" s="17" t="s">
+    <row r="1" s="16" customFormat="1" spans="1:6">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:5">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -1391,9 +2027,12 @@
       <c r="C27" s="15" t="s">
         <v>31</v>
       </c>
+      <c r="D27" s="17" t="s">
+        <v>61</v>
+      </c>
       <c r="E27" s="15"/>
       <c r="F27" s="15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1401,47 +2040,47 @@
         <v>27</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E28" s="15"/>
       <c r="F28" s="15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="14.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" ht="14.25" spans="1:6">
       <c r="A29" s="15">
         <v>28</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C29" s="15" t="s">
         <v>31</v>
       </c>
       <c r="E29" s="15"/>
       <c r="F29" s="18" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="14.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" ht="14.25" spans="1:6">
       <c r="A30" s="15">
         <v>29</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C30" s="15" t="s">
         <v>31</v>
       </c>
       <c r="E30" s="15"/>
       <c r="F30" s="18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1449,7 +2088,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C31" s="15" t="s">
         <v>20</v>
@@ -1462,7 +2101,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C32" s="15" t="s">
         <v>31</v>
@@ -1475,19 +2114,19 @@
         <v>32</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C33" s="15" t="s">
         <v>31</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E33" s="15">
         <v>990</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1495,7 +2134,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C34" s="15" t="s">
         <v>12</v>
@@ -1511,10 +2150,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D35" s="15"/>
       <c r="E35" s="15"/>
@@ -1525,7 +2164,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C36" s="15" t="s">
         <v>20</v>
@@ -1538,7 +2177,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C37" s="15" t="s">
         <v>12</v>
@@ -1551,10 +2190,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E38" s="15"/>
       <c r="F38" s="15"/>
@@ -1564,7 +2203,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C39" s="15" t="s">
         <v>47</v>
@@ -1573,61 +2212,61 @@
         <v>7000</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40" s="15">
         <v>39</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" s="15">
         <v>40</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C41" s="15"/>
       <c r="E41" s="15" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" s="15">
         <v>41</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C42" s="15"/>
       <c r="D42" s="15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E42" s="15">
         <v>2500</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:5">
       <c r="A43" s="15">
         <v>42</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" s="15">
         <v>43</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C44" s="15" t="s">
         <v>31</v>
@@ -1638,23 +2277,38 @@
         <v>44</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>153</v>
+        <v>90</v>
       </c>
       <c r="F45" s="15" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="46" ht="67.5" spans="1:6">
       <c r="A46" s="15">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:6">
+      <c r="B46" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D46" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="E46" s="17">
+        <v>1200</v>
+      </c>
+      <c r="F46" s="17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
       <c r="A47" s="15">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:1">
       <c r="A48" s="15">
         <v>47</v>
       </c>
@@ -1665,21 +2319,23 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="18.25" customWidth="1"/>
     <col min="3" max="3" width="31.625" customWidth="1"/>
@@ -1699,50 +2355,50 @@
         <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1">
+    <row r="2" s="1" customFormat="1" spans="1:5">
       <c r="A2" s="7">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>155</v>
+        <v>97</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1">
+    <row r="3" s="1" customFormat="1" spans="1:6">
       <c r="A3" s="7">
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="1" customFormat="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:5">
       <c r="A4" s="7">
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>27</v>
@@ -1750,12 +2406,12 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1">
+    <row r="5" s="1" customFormat="1" spans="1:6">
       <c r="A5" s="7">
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>27</v>
@@ -1763,28 +2419,28 @@
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="1" customFormat="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:5">
       <c r="A6" s="7">
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="1:6" s="1" customFormat="1">
+    <row r="7" s="1" customFormat="1" spans="1:6">
       <c r="A7" s="7">
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>20</v>
@@ -1792,190 +2448,190 @@
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="1" customFormat="1" ht="14.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="14.25" spans="1:5">
       <c r="A8" s="7">
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
     </row>
-    <row r="9" spans="1:6" s="1" customFormat="1">
+    <row r="9" s="1" customFormat="1" spans="1:5">
       <c r="A9" s="7">
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
     </row>
-    <row r="10" spans="1:6" s="2" customFormat="1">
+    <row r="10" s="2" customFormat="1" spans="1:6">
       <c r="A10" s="9">
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="2" customFormat="1">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" spans="1:6">
       <c r="A11" s="9">
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="2" customFormat="1">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" s="2" customFormat="1" spans="1:6">
       <c r="A12" s="9">
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="2" customFormat="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" s="2" customFormat="1" spans="1:6">
       <c r="A13" s="9">
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="2" customFormat="1">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" s="2" customFormat="1" spans="1:6">
       <c r="A14" s="9">
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
       <c r="F14" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" s="2" customFormat="1">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" s="2" customFormat="1" spans="1:6">
       <c r="A15" s="9">
         <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
       <c r="F15" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" s="2" customFormat="1">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" s="2" customFormat="1" spans="1:6">
       <c r="A16" s="9">
         <v>15</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
       <c r="F16" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="2" customFormat="1">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" s="2" customFormat="1" spans="1:6">
       <c r="A17" s="9">
         <v>16</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
       <c r="F17" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="3" customFormat="1">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" s="3" customFormat="1" spans="1:6">
       <c r="A18" s="10">
         <v>17</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="3" customFormat="1">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" s="3" customFormat="1" spans="1:6">
       <c r="A19" s="10">
         <v>18</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
       <c r="F19" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" s="3" customFormat="1">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" s="3" customFormat="1" spans="1:6">
       <c r="A20" s="10">
         <v>19</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
       <c r="F20" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="3" customFormat="1">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" s="3" customFormat="1" spans="1:6">
       <c r="A21" s="10">
         <v>20</v>
       </c>
@@ -1984,354 +2640,354 @@
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="10" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" s="3" customFormat="1">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22" s="3" customFormat="1" spans="1:6">
       <c r="A22" s="10">
         <v>21</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
       <c r="F22" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="3" customFormat="1">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" s="3" customFormat="1" spans="1:6">
       <c r="A23" s="10">
         <v>22</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
       <c r="F23" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" s="3" customFormat="1">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24" s="3" customFormat="1" spans="1:6">
       <c r="A24" s="10">
         <v>23</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
       <c r="F24" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" s="3" customFormat="1">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" s="3" customFormat="1" spans="1:6">
       <c r="A25" s="10">
         <v>24</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
       <c r="F25" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" s="4" customFormat="1">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" s="4" customFormat="1" spans="1:6">
       <c r="A26" s="11">
         <v>25</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
       <c r="F26" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" s="4" customFormat="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="27" s="4" customFormat="1" spans="1:6">
       <c r="A27" s="11">
         <v>26</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
       <c r="F27" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" s="4" customFormat="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="28" s="4" customFormat="1" spans="1:6">
       <c r="A28" s="11">
         <v>27</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="11" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="E28" s="11"/>
       <c r="F28" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" s="4" customFormat="1">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29" s="4" customFormat="1" spans="1:6">
       <c r="A29" s="11">
         <v>28</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
       <c r="F29" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" s="4" customFormat="1">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="30" s="4" customFormat="1" spans="1:6">
       <c r="A30" s="11">
         <v>29</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
       <c r="F30" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" s="4" customFormat="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="31" s="4" customFormat="1" spans="1:6">
       <c r="A31" s="11">
         <v>30</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" s="4" customFormat="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" s="4" customFormat="1" spans="1:6">
       <c r="A32" s="11">
         <v>31</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
       <c r="E32" s="11"/>
       <c r="F32" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" s="4" customFormat="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="33" s="4" customFormat="1" spans="1:6">
       <c r="A33" s="11">
         <v>32</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
       <c r="F33" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" s="3" customFormat="1" ht="14.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="34" s="3" customFormat="1" ht="14.25" spans="1:6">
       <c r="A34" s="10">
         <v>33</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C34" s="10"/>
       <c r="D34" s="12" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="E34" s="10"/>
       <c r="F34" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" s="3" customFormat="1">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="35" s="3" customFormat="1" spans="1:6">
       <c r="A35" s="10">
         <v>34</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" s="3" customFormat="1">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="36" s="3" customFormat="1" spans="1:6">
       <c r="A36" s="10">
         <v>35</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
       <c r="F36" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" s="3" customFormat="1">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="37" s="3" customFormat="1" spans="1:6">
       <c r="A37" s="10">
         <v>36</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C37" s="10"/>
       <c r="D37" s="10" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="E37" s="10"/>
       <c r="F37" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" s="3" customFormat="1">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="38" s="3" customFormat="1" spans="1:6">
       <c r="A38" s="10">
         <v>37</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="C38" s="10"/>
       <c r="D38" s="10" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E38" s="10"/>
       <c r="F38" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" s="3" customFormat="1">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="39" s="3" customFormat="1" spans="1:6">
       <c r="A39" s="10">
         <v>38</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="C39" s="10"/>
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
       <c r="F39" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" s="5" customFormat="1">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="40" s="5" customFormat="1" spans="1:6">
       <c r="A40" s="13">
         <v>39</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="C40" s="13"/>
       <c r="D40" s="14" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E40" s="13"/>
       <c r="F40" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" s="5" customFormat="1">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="41" s="5" customFormat="1" spans="1:6">
       <c r="A41" s="13">
         <v>40</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
       <c r="E41" s="13"/>
       <c r="F41" s="5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" s="5" customFormat="1">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="42" s="5" customFormat="1" spans="1:6">
       <c r="A42" s="13">
         <v>41</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C42" s="13"/>
       <c r="F42" s="5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" s="5" customFormat="1">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="43" s="5" customFormat="1" spans="1:6">
       <c r="A43" s="13">
         <v>42</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="C43" s="13"/>
       <c r="F43" s="5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" s="5" customFormat="1">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="44" s="5" customFormat="1" spans="1:6">
       <c r="A44" s="13">
         <v>43</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="C44" s="13"/>
       <c r="F44" s="5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" s="7">
         <v>44</v>
       </c>
       <c r="B45" s="15"/>
       <c r="C45" s="15"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:3">
       <c r="A46" s="7">
         <v>45</v>
       </c>
       <c r="B46" s="15"/>
       <c r="C46" s="15"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:3">
       <c r="A47" s="7">
         <v>46</v>
       </c>
@@ -2339,7 +2995,7 @@
       <c r="C47" s="15"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/远洋装修预算方案.xlsx
+++ b/远洋装修预算方案.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24000" windowHeight="9840"/>
+    <workbookView windowWidth="24000" windowHeight="9840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="预算" sheetId="1" r:id="rId1"/>
@@ -494,7 +494,27 @@
     <t>腻子粉</t>
   </si>
   <si>
-    <t>美巢YJP-800JJ/GQ、山鹅、莱恩斯、智恒</t>
+    <r>
+      <t>美巢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>YGP-800JJ/GQ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、山鹅、莱恩斯、智恒</t>
+    </r>
   </si>
   <si>
     <t>墙地面辅材（要耐水腻子），要第一遍干了再刷第二遍</t>
@@ -550,12 +570,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -577,13 +597,19 @@
     </font>
     <font>
       <sz val="11.5"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11.5"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -597,11 +623,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -612,11 +646,71 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -637,14 +731,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -652,53 +739,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -711,19 +752,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="11.5"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11.5"/>
@@ -771,187 +803,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -962,6 +994,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -980,15 +1027,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1000,6 +1038,33 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1029,39 +1094,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1070,10 +1102,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1082,137 +1114,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1249,13 +1281,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1264,10 +1296,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1594,7 +1623,7 @@
   <sheetPr/>
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="F46" sqref="F46"/>
@@ -2027,7 +2056,7 @@
       <c r="C27" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="D27" s="15" t="s">
         <v>61</v>
       </c>
       <c r="E27" s="15"/>
@@ -2064,7 +2093,7 @@
         <v>31</v>
       </c>
       <c r="E29" s="15"/>
-      <c r="F29" s="18" t="s">
+      <c r="F29" s="17" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2079,7 +2108,7 @@
         <v>31</v>
       </c>
       <c r="E30" s="15"/>
-      <c r="F30" s="18" t="s">
+      <c r="F30" s="17" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2287,19 +2316,19 @@
       <c r="A46" s="15">
         <v>45</v>
       </c>
-      <c r="B46" s="17" t="s">
+      <c r="B46" s="15" t="s">
         <v>92</v>
       </c>
       <c r="C46" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D46" s="19" t="s">
+      <c r="D46" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="E46" s="17">
+      <c r="E46" s="15">
         <v>1200</v>
       </c>
-      <c r="F46" s="17" t="s">
+      <c r="F46" s="15" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2329,10 +2358,10 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
+      <selection pane="bottomLeft" activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>

--- a/远洋装修预算方案.xlsx
+++ b/远洋装修预算方案.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24000" windowHeight="9840" activeTab="1"/>
+    <workbookView windowWidth="24000" windowHeight="9840"/>
   </bookViews>
   <sheets>
     <sheet name="预算" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="162">
   <si>
     <t>序号</t>
   </si>
@@ -41,6 +41,9 @@
     <t>大门</t>
   </si>
   <si>
+    <t>白色内开门</t>
+  </si>
+  <si>
     <t>断桥铝窗户+纱窗+五金件</t>
   </si>
   <si>
@@ -129,6 +132,9 @@
   </si>
   <si>
     <t>座便</t>
+  </si>
+  <si>
+    <t>要选择下水口内侧也是釉面的，而不是粗糙的，需要座便翻过来看</t>
   </si>
   <si>
     <t>洗手盆+洗手柜+水龙头</t>
@@ -495,6 +501,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>美巢</t>
     </r>
     <r>
@@ -571,9 +583,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -608,8 +620,16 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -617,54 +637,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -682,6 +657,73 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -690,9 +732,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -707,31 +749,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -740,13 +759,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -803,187 +815,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1008,54 +1020,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1086,6 +1050,54 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1102,10 +1114,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1114,137 +1126,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1295,6 +1307,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1623,10 +1638,10 @@
   <sheetPr/>
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F46" sqref="F46"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1657,7 +1672,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -1669,6 +1684,9 @@
       </c>
       <c r="E2" s="15">
         <v>3000</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1676,16 +1694,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="15">
         <v>8000</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1693,19 +1711,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" s="15">
         <v>3060</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1713,19 +1731,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E5" s="15">
         <v>4840</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1733,17 +1751,17 @@
         <v>5</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1751,19 +1769,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E7" s="15">
         <v>1840</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1771,17 +1789,17 @@
         <v>7</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1789,10 +1807,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
@@ -1802,10 +1820,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>32</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>31</v>
       </c>
       <c r="E10" s="15"/>
       <c r="F10" s="15"/>
@@ -1815,10 +1833,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
@@ -1828,19 +1846,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E12" s="15">
         <v>1600</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1848,29 +1866,31 @@
         <v>12</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
+      <c r="F13" s="15" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="15">
         <v>13</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E14" s="15">
         <v>2500</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1878,10 +1898,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E15" s="15">
         <v>1200</v>
@@ -1893,14 +1913,14 @@
         <v>15</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C16" s="15"/>
       <c r="E16" s="15">
         <v>5000</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1908,10 +1928,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E17" s="15"/>
       <c r="F17" s="15"/>
@@ -1921,10 +1941,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E18" s="15"/>
       <c r="F18" s="15"/>
@@ -1934,10 +1954,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
@@ -1947,10 +1967,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>
@@ -1960,14 +1980,14 @@
         <v>20</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E21" s="15"/>
       <c r="F21" s="15" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1975,19 +1995,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E22" s="15">
         <v>5000</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1995,10 +2015,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E23" s="15"/>
       <c r="F23" s="15"/>
@@ -2008,10 +2028,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
@@ -2021,10 +2041,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E25" s="15"/>
       <c r="F25" s="15"/>
@@ -2034,16 +2054,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E26" s="15">
         <v>2000</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2051,17 +2071,17 @@
         <v>26</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E27" s="15"/>
       <c r="F27" s="15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2069,17 +2089,17 @@
         <v>27</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E28" s="15"/>
       <c r="F28" s="15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" ht="14.25" spans="1:6">
@@ -2087,14 +2107,14 @@
         <v>28</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E29" s="15"/>
-      <c r="F29" s="17" t="s">
-        <v>68</v>
+      <c r="F29" s="18" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="30" ht="14.25" spans="1:6">
@@ -2102,14 +2122,14 @@
         <v>29</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E30" s="15"/>
-      <c r="F30" s="17" t="s">
-        <v>68</v>
+      <c r="F30" s="18" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2117,10 +2137,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E31" s="15"/>
       <c r="F31" s="15"/>
@@ -2130,10 +2150,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E32" s="15"/>
       <c r="F32" s="15"/>
@@ -2143,19 +2163,19 @@
         <v>32</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E33" s="15">
         <v>990</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2163,10 +2183,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D34" s="15"/>
       <c r="E34" s="15">
@@ -2179,10 +2199,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D35" s="15"/>
       <c r="E35" s="15"/>
@@ -2193,10 +2213,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E36" s="15"/>
       <c r="F36" s="15"/>
@@ -2206,10 +2226,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E37" s="15"/>
       <c r="F37" s="15"/>
@@ -2219,10 +2239,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E38" s="15"/>
       <c r="F38" s="15"/>
@@ -2232,16 +2252,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E39" s="15">
         <v>7000</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -2249,7 +2269,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2257,11 +2277,11 @@
         <v>40</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C41" s="15"/>
       <c r="E41" s="15" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -2269,11 +2289,11 @@
         <v>41</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C42" s="15"/>
       <c r="D42" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E42" s="15">
         <v>2500</v>
@@ -2284,10 +2304,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -2295,10 +2315,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2306,10 +2326,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F45" s="15" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="46" ht="67.5" spans="1:6">
@@ -2317,19 +2337,19 @@
         <v>45</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D46" s="18" t="s">
-        <v>93</v>
+        <v>32</v>
+      </c>
+      <c r="D46" s="19" t="s">
+        <v>95</v>
       </c>
       <c r="E46" s="15">
         <v>1200</v>
       </c>
       <c r="F46" s="15" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="47" spans="1:1">
@@ -2358,7 +2378,7 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="D34" sqref="D34"/>
@@ -2384,10 +2404,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>5</v>
@@ -2398,10 +2418,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
@@ -2411,15 +2431,15 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:5">
@@ -2427,10 +2447,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
@@ -2440,15 +2460,15 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:5">
@@ -2456,10 +2476,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
@@ -2469,15 +2489,15 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="14.25" spans="1:5">
@@ -2485,10 +2505,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
@@ -2498,7 +2518,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -2509,13 +2529,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:6">
@@ -2523,13 +2543,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" spans="1:6">
@@ -2537,15 +2557,15 @@
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" spans="1:6">
@@ -2553,13 +2573,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" spans="1:6">
@@ -2567,13 +2587,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
       <c r="F14" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" spans="1:6">
@@ -2581,13 +2601,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
       <c r="F15" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" s="2" customFormat="1" spans="1:6">
@@ -2595,13 +2615,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
       <c r="F16" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" s="2" customFormat="1" spans="1:6">
@@ -2609,13 +2629,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
       <c r="F17" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" s="3" customFormat="1" spans="1:6">
@@ -2623,13 +2643,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" s="3" customFormat="1" spans="1:6">
@@ -2637,13 +2657,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
       <c r="F19" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" s="3" customFormat="1" spans="1:6">
@@ -2651,13 +2671,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
       <c r="F20" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" s="3" customFormat="1" spans="1:6">
@@ -2665,15 +2685,15 @@
         <v>20</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="10" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" s="3" customFormat="1" spans="1:6">
@@ -2681,13 +2701,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
       <c r="F22" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" s="3" customFormat="1" spans="1:6">
@@ -2695,13 +2715,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
       <c r="F23" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" s="3" customFormat="1" spans="1:6">
@@ -2709,13 +2729,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
       <c r="F24" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" s="3" customFormat="1" spans="1:6">
@@ -2723,13 +2743,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
       <c r="F25" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26" s="4" customFormat="1" spans="1:6">
@@ -2737,13 +2757,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
       <c r="F26" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" s="4" customFormat="1" spans="1:6">
@@ -2751,13 +2771,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
       <c r="F27" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="28" s="4" customFormat="1" spans="1:6">
@@ -2765,15 +2785,15 @@
         <v>27</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="11" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E28" s="11"/>
       <c r="F28" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="29" s="4" customFormat="1" spans="1:6">
@@ -2781,13 +2801,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
       <c r="F29" s="4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="30" s="4" customFormat="1" spans="1:6">
@@ -2795,13 +2815,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
       <c r="F30" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" s="4" customFormat="1" spans="1:6">
@@ -2809,13 +2829,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="32" s="4" customFormat="1" spans="1:6">
@@ -2823,13 +2843,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
       <c r="E32" s="11"/>
       <c r="F32" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33" s="4" customFormat="1" spans="1:6">
@@ -2837,13 +2857,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
       <c r="F33" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34" s="3" customFormat="1" ht="14.25" spans="1:6">
@@ -2851,15 +2871,15 @@
         <v>33</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C34" s="10"/>
       <c r="D34" s="12" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E34" s="10"/>
       <c r="F34" s="3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="35" s="3" customFormat="1" spans="1:6">
@@ -2867,13 +2887,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="36" s="3" customFormat="1" spans="1:6">
@@ -2881,13 +2901,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
       <c r="F36" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="37" s="3" customFormat="1" spans="1:6">
@@ -2895,15 +2915,15 @@
         <v>36</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C37" s="10"/>
       <c r="D37" s="10" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E37" s="10"/>
       <c r="F37" s="3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="38" s="3" customFormat="1" spans="1:6">
@@ -2911,15 +2931,15 @@
         <v>37</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C38" s="10"/>
       <c r="D38" s="10" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E38" s="10"/>
       <c r="F38" s="3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="39" s="3" customFormat="1" spans="1:6">
@@ -2927,13 +2947,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C39" s="10"/>
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
       <c r="F39" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="40" s="5" customFormat="1" spans="1:6">
@@ -2941,15 +2961,15 @@
         <v>39</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C40" s="13"/>
       <c r="D40" s="14" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E40" s="13"/>
       <c r="F40" s="5" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="41" s="5" customFormat="1" spans="1:6">
@@ -2957,13 +2977,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
       <c r="E41" s="13"/>
       <c r="F41" s="5" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="42" s="5" customFormat="1" spans="1:6">
@@ -2971,11 +2991,11 @@
         <v>41</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C42" s="13"/>
       <c r="F42" s="5" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="43" s="5" customFormat="1" spans="1:6">
@@ -2983,11 +3003,11 @@
         <v>42</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C43" s="13"/>
       <c r="F43" s="5" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="44" s="5" customFormat="1" spans="1:6">
@@ -2995,11 +3015,11 @@
         <v>43</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C44" s="13"/>
       <c r="F44" s="5" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="45" spans="1:3">
